--- a/uploads/CUSTOMER DETAILS FOR LOGIN (1).xlsx
+++ b/uploads/CUSTOMER DETAILS FOR LOGIN (1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>DETAILS SHEET FOR PROFESSIONAL LOAN</t>
   </si>
@@ -245,38 +245,35 @@
     <t xml:space="preserve">OWNED </t>
   </si>
   <si>
-    <t xml:space="preserve">06 YEAR </t>
-  </si>
-  <si>
-    <t>RAHUL S. DUBAS</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIVAKUMAR IRRAPPA DUBAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWARUPA DUBAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dubasrahul@gmail.com </t>
-  </si>
-  <si>
-    <t>302, 1 BHK RESIDENT HOSTEL, SMCW &amp; SUHRC, LAVALE HILL BASE CAMPUS, PUNE - 412115</t>
-  </si>
-  <si>
-    <t>SYMBIOSIS MEDICAL COLLEGE FOR WOMEN &amp; SYMBIOSIS UNIVERSITY HOSPITAL AND RESEARCH CENTRE, LAVALE HILL BASE CAMPUS, PUNE- 412115</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t xml:space="preserve">MALE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS PER ALOTMENT LETTER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 YEAR </t>
+  </si>
+  <si>
+    <t>NITIN SINGHANIA</t>
+  </si>
+  <si>
+    <t>GOPAL DAS SINGHANIA</t>
+  </si>
+  <si>
+    <t>nitin6040@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS </t>
+  </si>
+  <si>
+    <t>REENA SINGHANIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,29 +325,37 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="28"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -466,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,31 +492,28 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,39 +838,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="145.85546875" customWidth="1"/>
     <col min="2" max="2" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -876,23 +878,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -900,7 +902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -908,7 +910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -916,7 +918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -924,31 +926,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>34092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>32287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6">
-        <v>9867805571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>9402928053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -961,15 +963,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>83</v>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,7 +982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -988,13 +990,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1002,37 +1004,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -1088,21 +1090,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
@@ -1118,43 +1120,43 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>33</v>
       </c>
@@ -1176,11 +1178,8 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,10 +1198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1347,10 +1346,10 @@
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">

--- a/uploads/CUSTOMER DETAILS FOR LOGIN (1).xlsx
+++ b/uploads/CUSTOMER DETAILS FOR LOGIN (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="PROFESSIONAL LOAN" sheetId="1" r:id="rId1"/>
     <sheet name="PL &amp; TERM LOAN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>DETAILS SHEET FOR PROFESSIONAL LOAN</t>
   </si>
@@ -224,9 +224,6 @@
     <t>FOR BACKUP</t>
   </si>
   <si>
-    <t xml:space="preserve">MOTHER </t>
-  </si>
-  <si>
     <t xml:space="preserve">AS PER AADHAR </t>
   </si>
   <si>
@@ -245,35 +242,41 @@
     <t xml:space="preserve">OWNED </t>
   </si>
   <si>
-    <t xml:space="preserve">MALE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS PER ALOTMENT LETTER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 YEAR </t>
-  </si>
-  <si>
-    <t>NITIN SINGHANIA</t>
-  </si>
-  <si>
-    <t>GOPAL DAS SINGHANIA</t>
-  </si>
-  <si>
-    <t>nitin6040@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS </t>
-  </si>
-  <si>
-    <t>REENA SINGHANIA</t>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>BHMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 year </t>
+  </si>
+  <si>
+    <t>RIZWAN KHAN</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALI</t>
+  </si>
+  <si>
+    <t>9354266232 / 8302392923</t>
+  </si>
+  <si>
+    <t>MUSTARI BEGAM</t>
+  </si>
+  <si>
+    <t>rizwanrana266@gmail.com</t>
+  </si>
+  <si>
+    <t>Office address  We Skin Clinic Shop no 10 First floor B Block market Noida Sector 62</t>
+  </si>
+  <si>
+    <t>BAJAJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,22 +320,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -340,7 +336,7 @@
     </font>
     <font>
       <u/>
-      <sz val="28"/>
+      <sz val="36"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,14 +344,14 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -471,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,41 +481,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,7 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -659,7 +657,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,168 +832,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="46.5"/>
   <cols>
-    <col min="1" max="1" width="145.85546875" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="129.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>32287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6">
-        <v>9402928053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" ht="33" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1004,61 +1001,61 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -1090,85 +1087,71 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="15"/>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1184,26 +1167,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1211,37 +1194,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1249,139 +1232,139 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
